--- a/app/config/tables/food_bout/forms/food_bout/food_bout.xlsx
+++ b/app/config/tables/food_bout/forms/food_bout/food_bout.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\food_bout\forms\food_bout\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25606" windowHeight="16063" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="settings" sheetId="2" r:id="rId2"/>
+    <sheet name="properties" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>clause</t>
   </si>
@@ -52,9 +58,6 @@
     <t>display.title</t>
   </si>
   <si>
-    <t>form_id</t>
-  </si>
-  <si>
     <t>form_version</t>
   </si>
   <si>
@@ -134,6 +137,33 @@
   </si>
   <si>
     <t>FB_end_feed_time</t>
+  </si>
+  <si>
+    <t>table_id</t>
+  </si>
+  <si>
+    <t>partition</t>
+  </si>
+  <si>
+    <t>aspect</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>colOrder</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>["FB_FOL_date","FB_FOL_B_AnimID","FB_begin_feed_time","FB_end_feed_time","FB_duration","FB_FPL_local_food_part","FB_FL_local_food_name","FB_FPL_local_food_part2","FB_FL_local_food_name2","FB_local_food_part_written","FB_local_food_name_written"]</t>
   </si>
 </sst>
 </file>
@@ -152,6 +182,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -234,6 +265,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -561,20 +600,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" customWidth="1"/>
     <col min="5" max="5" width="34.6640625" customWidth="1"/>
-    <col min="6" max="6" width="54.1640625" customWidth="1"/>
+    <col min="6" max="6" width="54.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,7 +633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
@@ -602,13 +641,13 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="3" t="s">
@@ -616,13 +655,13 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="3" t="s">
@@ -630,13 +669,13 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1">
+    </row>
+    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
@@ -644,27 +683,27 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
@@ -672,13 +711,13 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
@@ -686,13 +725,13 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30">
+    </row>
+    <row r="9" spans="1:6" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
@@ -700,13 +739,13 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="3" t="s">
@@ -714,13 +753,13 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
@@ -728,54 +767,54 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="3:6">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="3:6">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="3:6">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="4"/>
@@ -796,17 +835,17 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -817,31 +856,31 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="B3" s="6">
         <v>20140715</v>
       </c>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -852,4 +891,56 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="13.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/app/config/tables/food_bout/forms/food_bout/food_bout.xlsx
+++ b/app/config/tables/food_bout/forms/food_bout/food_bout.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25606" windowHeight="16063" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25606" windowHeight="16063" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>display.text</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>display.title</t>
-  </si>
-  <si>
     <t>form_version</t>
   </si>
   <si>
@@ -164,12 +158,18 @@
   </si>
   <si>
     <t>["FB_FOL_date","FB_FOL_B_AnimID","FB_begin_feed_time","FB_end_feed_time","FB_duration","FB_FPL_local_food_part","FB_FL_local_food_name","FB_FPL_local_food_part2","FB_FL_local_food_name2","FB_local_food_part_written","FB_local_food_name_written"]</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -630,158 +630,158 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -835,7 +835,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -847,27 +847,27 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>8</v>
-      </c>
       <c r="C1" s="6" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="6">
         <v>20140715</v>
@@ -876,11 +876,11 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -897,7 +897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -908,36 +908,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
         <v>38</v>
-      </c>
-      <c r="B1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s">
-        <v>40</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
         <v>41</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>43</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
